--- a/ver_salidas.xlsx
+++ b/ver_salidas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC19"/>
+  <dimension ref="A1:CC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8089,6 +8089,409 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>40389</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>33514</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1899-12-30</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPAM SA            </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               </t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TEXIL                                   </t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>17632.70</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>TCNU-165356-1</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          </t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          </t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8164410             </t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -                                                                                                                                                                                                      </t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IC04 </t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25001IC04041814M    </t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PLZA                </t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    </t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FACTURA PROPIA      </t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    </t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25001MANI021893B    </t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                              </t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25001MANI021893B    </t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB241253577                   </t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          </t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          </t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    </t>
+        </is>
+      </c>
+      <c r="AR20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28        </t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>13:56:45</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          </t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>1899-12-30</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        </t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          </t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>1899-12-30</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        </t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">65725     </t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                              </t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:56:26.0000000</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                </t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          </t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               </t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>1899-12-30</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CNNBO               </t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    </t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          </t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>1899-12-30 00:00:00.0000000</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    </t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                              </t>
+        </is>
+      </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          </t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ20" t="inlineStr">
+        <is>
+          <t>1899-12-30</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC20" t="inlineStr">
+        <is>
+          <t>1899-12-30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
